--- a/20919-황성대.xlsx
+++ b/20919-황성대.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\csv_n_excel-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,6 +15,7 @@
     <sheet name="제1작업" sheetId="1" r:id="rId1"/>
     <sheet name="제2작업" sheetId="2" r:id="rId2"/>
     <sheet name="제3작업" sheetId="3" r:id="rId3"/>
+    <sheet name="제4작업" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">제2작업!$B$2:$H$10</definedName>
@@ -23,6 +24,9 @@
     <definedName name="대리점">제1작업!$D$5:$D$12</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <pivotCaches>
+    <pivotCache cacheId="6" r:id="rId5"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="56">
   <si>
     <t>선박명</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -209,6 +213,42 @@
   <si>
     <t>&gt;=6000</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>승호해운</t>
+  </si>
+  <si>
+    <t>신일해운</t>
+  </si>
+  <si>
+    <t>태현이앤씨</t>
+  </si>
+  <si>
+    <t>총합계</t>
+  </si>
+  <si>
+    <t>3월</t>
+  </si>
+  <si>
+    <t>2월</t>
+  </si>
+  <si>
+    <t>1월</t>
+  </si>
+  <si>
+    <t>개수 : 선박명</t>
+  </si>
+  <si>
+    <t>입항일</t>
+  </si>
+  <si>
+    <t>대리점</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>평균 : 화물량(단위:톤)</t>
   </si>
 </sst>
 </file>
@@ -217,7 +257,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="#,##0&quot;항차&quot;"/>
+    <numFmt numFmtId="176" formatCode="#,##0&quot;항차&quot;"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -643,190 +683,183 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="10">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="굴림"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -882,7 +915,7 @@
         <name val="굴림"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="178" formatCode="#,##0&quot;항차&quot;"/>
+      <numFmt numFmtId="176" formatCode="#,##0&quot;항차&quot;"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1003,6 +1036,40 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <color rgb="FF0070C0"/>
@@ -1026,6 +1093,1171 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="2000" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>신일해운 및 승호해운 모래수송선 실적</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>화물량(단위:톤)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-4400-4E0A-9182-134E3A588801}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                    <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(제1작업!$C$5,제1작업!$C$6,제1작업!$C$7,제1작업!$C$8,제1작업!$C$10,제1작업!$C$11)</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>천곡211호</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>추암203호</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>평릉402호</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>백석105호</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>비천107호</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>해동323호</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(제1작업!$H$5,제1작업!$H$6,제1작업!$H$7,제1작업!$H$8,제1작업!$H$10,제1작업!$H$11)</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7820</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5064</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6322</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4368</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3640</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4325</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4400-4E0A-9182-134E3A588801}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="-25"/>
+        <c:axId val="1620676095"/>
+        <c:axId val="1620674015"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>제1작업!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>항차</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(제1작업!$C$5,제1작업!$C$6,제1작업!$C$7,제1작업!$C$8,제1작업!$C$10,제1작업!$C$11)</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>천곡211호</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>추암203호</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>평릉402호</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>백석105호</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>비천107호</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>해동323호</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(제1작업!$F$5,제1작업!$F$6,제1작업!$F$7,제1작업!$F$8,제1작업!$F$10,제1작업!$F$11)</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0"항차"</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4400-4E0A-9182-134E3A588801}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1652842223"/>
+        <c:axId val="1653206015"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1620676095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1620674015"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1620674015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1620676095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1653206015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="#,##0&quot;항차&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1652842223"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="20"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1652842223"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1653206015"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:blipFill>
+      <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+      <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+    </a:blipFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+          <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:userShapes r:id="rId4"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="122" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1161,14 +2393,397 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9306393" cy="6081947"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.23658</cdr:x>
+      <cdr:y>0.11168</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.35151</cdr:x>
+      <cdr:y>0.17458</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="모서리가 둥근 사각형 설명선 1"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2201680" y="679242"/>
+          <a:ext cx="1069611" cy="382562"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -77756"/>
+            <a:gd name="adj2" fmla="val 59375"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" anchor="ctr"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>최대 화물량</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+            <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="user" refreshedDate="45093.412214236108" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="8">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B4:H12" sheet="제1작업"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="코드" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="선박명" numFmtId="0">
+      <sharedItems count="8">
+        <s v="천곡211호"/>
+        <s v="추암203호"/>
+        <s v="평릉402호"/>
+        <s v="백석105호"/>
+        <s v="삼봉902호"/>
+        <s v="비천107호"/>
+        <s v="해동323호"/>
+        <s v="대진704호"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="대리점" numFmtId="0">
+      <sharedItems count="3">
+        <s v="신일해운"/>
+        <s v="승호해운"/>
+        <s v="태현이앤씨"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="입항항" numFmtId="0">
+      <sharedItems count="3">
+        <s v="목포"/>
+        <s v="인천"/>
+        <s v="부산"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="항차" numFmtId="176">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="4" maxValue="82"/>
+    </cacheField>
+    <cacheField name="입항일" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2023-01-13T00:00:00" maxDate="2023-03-05T00:00:00" count="8">
+        <d v="2023-01-13T00:00:00"/>
+        <d v="2023-03-01T00:00:00"/>
+        <d v="2023-03-04T00:00:00"/>
+        <d v="2023-02-21T00:00:00"/>
+        <d v="2023-01-27T00:00:00"/>
+        <d v="2023-03-03T00:00:00"/>
+        <d v="2023-02-12T00:00:00"/>
+        <d v="2023-02-16T00:00:00"/>
+      </sharedItems>
+      <fieldGroup base="5">
+        <rangePr groupBy="months" startDate="2023-01-13T00:00:00" endDate="2023-03-05T00:00:00"/>
+        <groupItems count="14">
+          <s v="&lt;2023-01-13"/>
+          <s v="1월"/>
+          <s v="2월"/>
+          <s v="3월"/>
+          <s v="4월"/>
+          <s v="5월"/>
+          <s v="6월"/>
+          <s v="7월"/>
+          <s v="8월"/>
+          <s v="9월"/>
+          <s v="10월"/>
+          <s v="11월"/>
+          <s v="12월"/>
+          <s v="&gt;2023-03-05"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+    <cacheField name="화물량_x000a_(단위:톤)" numFmtId="41">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2418" maxValue="7820"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="8">
+  <r>
+    <s v="A6362"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="75"/>
+    <x v="0"/>
+    <n v="7820"/>
+  </r>
+  <r>
+    <s v="B8325"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="82"/>
+    <x v="1"/>
+    <n v="5064"/>
+  </r>
+  <r>
+    <s v="C3296"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="11"/>
+    <x v="2"/>
+    <n v="6322"/>
+  </r>
+  <r>
+    <s v="B1287"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="6"/>
+    <x v="3"/>
+    <n v="4368"/>
+  </r>
+  <r>
+    <s v="B1554"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="4"/>
+    <x v="4"/>
+    <n v="5239"/>
+  </r>
+  <r>
+    <s v="C2281"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="68"/>
+    <x v="5"/>
+    <n v="3640"/>
+  </r>
+  <r>
+    <s v="A7731"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="6"/>
+    <n v="4325"/>
+  </r>
+  <r>
+    <s v="A6528"/>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="48"/>
+    <x v="7"/>
+    <n v="2418"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" missingCaption="**" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" mergeItem="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="입항일" colHeaderCaption="대리점">
+  <location ref="B2:H8" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="9">
+        <item x="7"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0" sortType="descending">
+      <items count="4">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="176" showAll="0"/>
+    <pivotField axis="axisRow" numFmtId="14" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="41" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="2"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="6">
+    <i>
+      <x/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="개수 : 선박명" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="평균 : 화물량(단위:톤)" fld="6" subtotal="average" baseField="5" baseItem="0"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="1">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="0">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="B18:E21" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="B18:E21" totalsRowShown="0" headerRowDxfId="7" tableBorderDxfId="6">
   <autoFilter ref="B18:E21"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="코드" dataDxfId="4"/>
-    <tableColumn id="2" name="선박명" dataDxfId="3"/>
-    <tableColumn id="3" name="항차" dataDxfId="2" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="4" name="화물량_x000a_(단위:톤)" dataDxfId="1" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="1" name="코드" dataDxfId="5"/>
+    <tableColumn id="2" name="선박명" dataDxfId="4"/>
+    <tableColumn id="3" name="항차" dataDxfId="3" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="4" name="화물량_x000a_(단위:톤)" dataDxfId="2" dataCellStyle="쉼표 [0]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1440,7 +3055,7 @@
   <dimension ref="B1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:H12"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1456,324 +3071,324 @@
     <row r="2" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:10" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="I4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="J4" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="20">
         <v>75</v>
       </c>
-      <c r="G5" s="29">
+      <c r="G5" s="23">
         <v>44939</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="12">
         <v>7820</v>
       </c>
-      <c r="I5" s="9" t="str">
+      <c r="I5" s="3" t="str">
         <f>CHOOSE(WEEKDAY(G5,1),"월요일","화요일","수요일","목요일","금요일","토요일","일요일")</f>
         <v>토요일</v>
       </c>
-      <c r="J5" s="10" t="str">
+      <c r="J5" s="4" t="str">
         <f>_xlfn.RANK.EQ(F5,$F$5:$F$12,0)&amp;"위"</f>
         <v>2위</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="21">
         <v>82</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="24">
         <v>44986</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="13">
         <v>5064</v>
       </c>
-      <c r="I6" s="12" t="str">
+      <c r="I6" s="6" t="str">
         <f t="shared" ref="I6:I12" si="0">CHOOSE(WEEKDAY(G6,1),"월요일","화요일","수요일","목요일","금요일","토요일","일요일")</f>
         <v>목요일</v>
       </c>
-      <c r="J6" s="13" t="str">
+      <c r="J6" s="7" t="str">
         <f t="shared" ref="J6:J12" si="1">_xlfn.RANK.EQ(F6,$F$5:$F$12,0)&amp;"위"</f>
         <v>1위</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="21">
         <v>11</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="24">
         <v>44989</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="13">
         <v>6322</v>
       </c>
-      <c r="I7" s="12" t="str">
+      <c r="I7" s="6" t="str">
         <f t="shared" si="0"/>
         <v>일요일</v>
       </c>
-      <c r="J7" s="13" t="str">
+      <c r="J7" s="7" t="str">
         <f t="shared" si="1"/>
         <v>5위</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="21">
         <v>6</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="24">
         <v>44978</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="13">
         <v>4368</v>
       </c>
-      <c r="I8" s="12" t="str">
+      <c r="I8" s="6" t="str">
         <f t="shared" si="0"/>
         <v>수요일</v>
       </c>
-      <c r="J8" s="13" t="str">
+      <c r="J8" s="7" t="str">
         <f t="shared" si="1"/>
         <v>6위</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="21">
         <v>4</v>
       </c>
-      <c r="G9" s="30">
+      <c r="G9" s="24">
         <v>44953</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="13">
         <v>5239</v>
       </c>
-      <c r="I9" s="12" t="str">
+      <c r="I9" s="6" t="str">
         <f t="shared" si="0"/>
         <v>토요일</v>
       </c>
-      <c r="J9" s="13" t="str">
+      <c r="J9" s="7" t="str">
         <f t="shared" si="1"/>
         <v>8위</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="21">
         <v>68</v>
       </c>
-      <c r="G10" s="30">
+      <c r="G10" s="24">
         <v>44988</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="13">
         <v>3640</v>
       </c>
-      <c r="I10" s="12" t="str">
+      <c r="I10" s="6" t="str">
         <f t="shared" si="0"/>
         <v>토요일</v>
       </c>
-      <c r="J10" s="13" t="str">
+      <c r="J10" s="7" t="str">
         <f t="shared" si="1"/>
         <v>3위</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F11" s="21">
         <v>5</v>
       </c>
-      <c r="G11" s="30">
+      <c r="G11" s="24">
         <v>44969</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="13">
         <v>4325</v>
       </c>
-      <c r="I11" s="12" t="str">
+      <c r="I11" s="6" t="str">
         <f t="shared" si="0"/>
         <v>월요일</v>
       </c>
-      <c r="J11" s="13" t="str">
+      <c r="J11" s="7" t="str">
         <f t="shared" si="1"/>
         <v>7위</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="22">
         <v>48</v>
       </c>
-      <c r="G12" s="31">
+      <c r="G12" s="25">
         <v>44973</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="14">
         <v>2418</v>
       </c>
-      <c r="I12" s="15" t="str">
+      <c r="I12" s="9" t="str">
         <f t="shared" si="0"/>
         <v>금요일</v>
       </c>
-      <c r="J12" s="16" t="str">
+      <c r="J12" s="10" t="str">
         <f t="shared" si="1"/>
         <v>4위</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="32">
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="26">
         <f>MIN(H5:H12)</f>
         <v>2418</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="6" t="s">
+      <c r="F13" s="46"/>
+      <c r="G13" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="17">
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="11">
         <f>INT(DAVERAGE(B4:H12,F4,D4:D5))</f>
         <v>28</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="15">
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="9">
         <f>COUNTIF(대리점,D6)</f>
         <v>3</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="25" t="s">
+      <c r="F14" s="47"/>
+      <c r="G14" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="25" t="s">
+      <c r="I14" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="16">
+      <c r="J14" s="10">
         <f>VLOOKUP(H14,B5:H12,5)</f>
         <v>75</v>
       </c>
@@ -1789,7 +3404,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="B5:J12">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>$F5&lt;=10</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1809,231 +3424,235 @@
   <dimension ref="B1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:E21"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
-    <col min="2" max="6" width="9" style="1"/>
+    <col min="2" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1"/>
     <col min="7" max="7" width="13.25" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="20">
         <v>75</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3" s="23">
         <v>44939</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="12">
         <v>7820</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="21">
         <v>82</v>
       </c>
-      <c r="G4" s="30">
+      <c r="G4" s="24">
         <v>44986</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="13">
         <v>5064</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="21">
         <v>11</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="24">
         <v>44989</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="13">
         <v>6322</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="21">
         <v>6</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="24">
         <v>44978</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="13">
         <v>4368</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="21">
         <v>4</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="24">
         <v>44953</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="13">
         <v>5239</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="21">
         <v>68</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="24">
         <v>44988</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="13">
         <v>3640</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="21">
         <v>5</v>
       </c>
-      <c r="G9" s="30">
+      <c r="G9" s="24">
         <v>44969</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="13">
         <v>4325</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="22">
         <v>48</v>
       </c>
-      <c r="G10" s="31">
+      <c r="G10" s="25">
         <v>44973</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="14">
         <v>2418</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="2:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="17" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2048,65 +3667,65 @@
       </c>
     </row>
     <row r="18" spans="2:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="42" t="s">
+      <c r="C18" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="42" t="s">
+      <c r="D18" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="43" t="s">
+      <c r="E18" s="37" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="34">
+      <c r="D19" s="28">
         <v>75</v>
       </c>
-      <c r="E19" s="39">
+      <c r="E19" s="33">
         <v>7820</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="36">
+      <c r="D20" s="30">
         <v>11</v>
       </c>
-      <c r="E20" s="40">
+      <c r="E20" s="34">
         <v>6322</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="45" t="s">
+      <c r="C21" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="46">
+      <c r="D21" s="40">
         <v>68</v>
       </c>
-      <c r="E21" s="47">
+      <c r="E21" s="41">
         <v>3640</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="B3:H10">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>$F3&lt;=10</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2119,18 +3738,309 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="11.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B2" s="49"/>
+      <c r="C2" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2"/>
+      <c r="J2"/>
+    </row>
+    <row r="3" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B3" s="49"/>
+      <c r="C3" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="51"/>
+      <c r="E3" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="51"/>
+      <c r="G3" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="51"/>
+      <c r="I3"/>
+      <c r="J3"/>
+    </row>
+    <row r="4" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B4" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4"/>
+      <c r="J4"/>
+    </row>
+    <row r="5" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B5" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="54">
+        <v>1</v>
+      </c>
+      <c r="D5" s="54">
+        <v>5239</v>
+      </c>
+      <c r="E5" s="54">
+        <v>1</v>
+      </c>
+      <c r="F5" s="54">
+        <v>7820</v>
+      </c>
+      <c r="G5" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5"/>
+      <c r="J5"/>
+    </row>
+    <row r="6" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B6" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="54">
+        <v>1</v>
+      </c>
+      <c r="D6" s="54">
+        <v>2418</v>
+      </c>
+      <c r="E6" s="54">
+        <v>2</v>
+      </c>
+      <c r="F6" s="54">
+        <v>4346.5</v>
+      </c>
+      <c r="G6" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6"/>
+      <c r="J6"/>
+    </row>
+    <row r="7" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B7" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="54">
+        <v>3</v>
+      </c>
+      <c r="H7" s="54">
+        <v>5008.666666666667</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7"/>
+    </row>
+    <row r="8" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B8" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="54">
+        <v>2</v>
+      </c>
+      <c r="D8" s="54">
+        <v>3828.5</v>
+      </c>
+      <c r="E8" s="54">
+        <v>3</v>
+      </c>
+      <c r="F8" s="54">
+        <v>5504.333333333333</v>
+      </c>
+      <c r="G8" s="54">
+        <v>3</v>
+      </c>
+      <c r="H8" s="54">
+        <v>5008.666666666667</v>
+      </c>
+      <c r="I8"/>
+      <c r="J8"/>
+    </row>
+    <row r="9" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+    </row>
+    <row r="10" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+    </row>
+    <row r="11" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+    </row>
+    <row r="12" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+    </row>
+    <row r="13" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+    </row>
+    <row r="14" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+    </row>
+    <row r="15" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+    </row>
+    <row r="16" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+    </row>
+    <row r="17" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+    </row>
+    <row r="18" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+    </row>
+    <row r="19" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+    </row>
+    <row r="20" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B20"/>
+      <c r="C20"/>
+    </row>
+    <row r="21" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B21"/>
+      <c r="C21"/>
+    </row>
+    <row r="22" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B22"/>
+      <c r="C22"/>
+    </row>
+    <row r="23" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B23"/>
+    </row>
+    <row r="24" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B24"/>
+    </row>
+    <row r="25" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B25"/>
+    </row>
+    <row r="26" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B26"/>
+    </row>
+    <row r="27" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B27"/>
+    </row>
+    <row r="28" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B28"/>
+    </row>
+    <row r="29" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B29"/>
+    </row>
+    <row r="30" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/20919-황성대.xlsx
+++ b/20919-황성대.xlsx
@@ -855,6 +855,13 @@
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
     <dxf>
       <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     </dxf>
@@ -1067,13 +1074,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -2760,10 +2760,10 @@
     <dataField name="평균 : 화물량(단위:톤)" fld="6" subtotal="average" baseField="5" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="1">
+    <format dxfId="2">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="0">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -2777,13 +2777,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="B18:E21" totalsRowShown="0" headerRowDxfId="7" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="B18:E21" totalsRowShown="0" headerRowDxfId="8" tableBorderDxfId="7">
   <autoFilter ref="B18:E21"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="코드" dataDxfId="5"/>
-    <tableColumn id="2" name="선박명" dataDxfId="4"/>
-    <tableColumn id="3" name="항차" dataDxfId="3" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="4" name="화물량_x000a_(단위:톤)" dataDxfId="2" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="1" name="코드" dataDxfId="6"/>
+    <tableColumn id="2" name="선박명" dataDxfId="5"/>
+    <tableColumn id="3" name="항차" dataDxfId="4" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="4" name="화물량_x000a_(단위:톤)" dataDxfId="3" dataCellStyle="쉼표 [0]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3055,7 +3055,7 @@
   <dimension ref="B1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -3122,8 +3122,8 @@
         <v>7820</v>
       </c>
       <c r="I5" s="3" t="str">
-        <f>CHOOSE(WEEKDAY(G5,1),"월요일","화요일","수요일","목요일","금요일","토요일","일요일")</f>
-        <v>토요일</v>
+        <f>CHOOSE(WEEKDAY(G5,2),"월요일","화요일","수요일","목요일","금요일","토요일","일요일")</f>
+        <v>금요일</v>
       </c>
       <c r="J5" s="4" t="str">
         <f>_xlfn.RANK.EQ(F5,$F$5:$F$12,0)&amp;"위"</f>
@@ -3153,8 +3153,8 @@
         <v>5064</v>
       </c>
       <c r="I6" s="6" t="str">
-        <f t="shared" ref="I6:I12" si="0">CHOOSE(WEEKDAY(G6,1),"월요일","화요일","수요일","목요일","금요일","토요일","일요일")</f>
-        <v>목요일</v>
+        <f t="shared" ref="I6:I12" si="0">CHOOSE(WEEKDAY(G6,2),"월요일","화요일","수요일","목요일","금요일","토요일","일요일")</f>
+        <v>수요일</v>
       </c>
       <c r="J6" s="7" t="str">
         <f t="shared" ref="J6:J12" si="1">_xlfn.RANK.EQ(F6,$F$5:$F$12,0)&amp;"위"</f>
@@ -3185,7 +3185,7 @@
       </c>
       <c r="I7" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>일요일</v>
+        <v>토요일</v>
       </c>
       <c r="J7" s="7" t="str">
         <f t="shared" si="1"/>
@@ -3216,7 +3216,7 @@
       </c>
       <c r="I8" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>수요일</v>
+        <v>화요일</v>
       </c>
       <c r="J8" s="7" t="str">
         <f t="shared" si="1"/>
@@ -3247,7 +3247,7 @@
       </c>
       <c r="I9" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>토요일</v>
+        <v>금요일</v>
       </c>
       <c r="J9" s="7" t="str">
         <f t="shared" si="1"/>
@@ -3278,7 +3278,7 @@
       </c>
       <c r="I10" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>토요일</v>
+        <v>금요일</v>
       </c>
       <c r="J10" s="7" t="str">
         <f t="shared" si="1"/>
@@ -3309,7 +3309,7 @@
       </c>
       <c r="I11" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>월요일</v>
+        <v>일요일</v>
       </c>
       <c r="J11" s="7" t="str">
         <f t="shared" si="1"/>
@@ -3340,7 +3340,7 @@
       </c>
       <c r="I12" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>금요일</v>
+        <v>목요일</v>
       </c>
       <c r="J12" s="10" t="str">
         <f t="shared" si="1"/>
@@ -3404,7 +3404,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="B5:J12">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$F5&lt;=10</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3725,7 +3725,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="B3:H10">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>$F3&lt;=10</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3741,7 +3741,7 @@
   <dimension ref="B2:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
